--- a/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,73 +22,115 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>163412</t>
+  </si>
+  <si>
+    <t>001113</t>
+  </si>
+  <si>
     <t>610002</t>
   </si>
   <si>
-    <t>001113</t>
+    <t>005041</t>
+  </si>
+  <si>
+    <t>002303</t>
   </si>
   <si>
     <t>004344</t>
   </si>
   <si>
-    <t>002303</t>
-  </si>
-  <si>
-    <t>005041</t>
-  </si>
-  <si>
-    <t>163412</t>
+    <t>兴全轻资产混合(LOF)</t>
+  </si>
+  <si>
+    <t>南方大数据100指数A</t>
   </si>
   <si>
     <t>信达澳银精华配置混合</t>
   </si>
   <si>
-    <t>南方大数据100指数A</t>
+    <t>人保研究精选混合A</t>
+  </si>
+  <si>
+    <t>金鹰智慧生活灵活配置混合</t>
   </si>
   <si>
     <t>南方大数据100指数C</t>
   </si>
   <si>
-    <t>金鹰智慧生活灵活配置混合</t>
-  </si>
-  <si>
-    <t>人保研究精选混合A</t>
-  </si>
-  <si>
-    <t>兴全轻资产混合(LOF)</t>
+    <t>69.78</t>
+  </si>
+  <si>
+    <t>24.74</t>
+  </si>
+  <si>
+    <t>5.40</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>84.34</t>
+  </si>
+  <si>
+    <t>93.19</t>
   </si>
   <si>
     <t>80.84</t>
   </si>
   <si>
-    <t>93.19</t>
-  </si>
-  <si>
     <t>92.22</t>
   </si>
   <si>
-    <t>84.34</t>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>1.15</t>
   </si>
   <si>
     <t>1.32</t>
   </si>
   <si>
-    <t>1.15</t>
-  </si>
-  <si>
     <t>5.41</t>
   </si>
   <si>
-    <t>2.30</t>
+    <t>1.6049</t>
+  </si>
+  <si>
+    <t>0.2845</t>
+  </si>
+  <si>
+    <t>0.0713</t>
+  </si>
+  <si>
+    <t>0.0313</t>
+  </si>
+  <si>
+    <t>0.0054</t>
+  </si>
+  <si>
+    <t>0.0022</t>
   </si>
 </sst>
 </file>
@@ -446,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,125 +510,167 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
@@ -1,168 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>163412</t>
-  </si>
-  <si>
-    <t>001113</t>
-  </si>
-  <si>
-    <t>610002</t>
-  </si>
-  <si>
-    <t>005041</t>
-  </si>
-  <si>
-    <t>002303</t>
-  </si>
-  <si>
-    <t>004344</t>
-  </si>
-  <si>
-    <t>兴全轻资产混合(LOF)</t>
-  </si>
-  <si>
-    <t>南方大数据100指数A</t>
-  </si>
-  <si>
-    <t>信达澳银精华配置混合</t>
-  </si>
-  <si>
-    <t>人保研究精选混合A</t>
-  </si>
-  <si>
-    <t>金鹰智慧生活灵活配置混合</t>
-  </si>
-  <si>
-    <t>南方大数据100指数C</t>
-  </si>
-  <si>
-    <t>69.78</t>
-  </si>
-  <si>
-    <t>24.74</t>
-  </si>
-  <si>
-    <t>5.40</t>
-  </si>
-  <si>
-    <t>1.36</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>84.34</t>
-  </si>
-  <si>
-    <t>93.19</t>
-  </si>
-  <si>
-    <t>80.84</t>
-  </si>
-  <si>
-    <t>92.22</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>5.41</t>
-  </si>
-  <si>
-    <t>1.6049</t>
-  </si>
-  <si>
-    <t>0.2845</t>
-  </si>
-  <si>
-    <t>0.0713</t>
-  </si>
-  <si>
-    <t>0.0313</t>
-  </si>
-  <si>
-    <t>0.0054</t>
-  </si>
-  <si>
-    <t>0.0022</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -487,193 +446,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6049</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2845</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,438 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4555</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4823</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1294,4 +1295,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1303,7 +1304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1314,17 +1315,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1334,14 +1355,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.9</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3992</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1350,14 +1393,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1</v>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7615</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1366,13 +1431,933 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4348</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3530</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2567</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>55.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>55.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2272,7 +2273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2283,17 +2284,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2303,14 +2324,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.67</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7121</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2319,14 +2362,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.9</v>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9141</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2335,14 +2400,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1</v>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2351,13 +2438,833 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3450</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2607</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3163,7 +3164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3174,17 +3175,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3194,14 +3215,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.91</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8469</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3210,14 +3253,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.67</v>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7493</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3226,14 +3291,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.9</v>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3242,14 +3329,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1</v>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3258,13 +3367,659 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,281 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163412</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴全轻资产混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>69.78</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6049</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001113</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>24.74</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2845</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D5" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>610002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信达澳银精华配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0713</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005041</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>人保研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0313</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002303</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>金鹰智慧生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+      <c r="D6" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004344</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方大数据100指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.19</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -740,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -791,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>610006</t>
+          <t>012930</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银产业升级混合</t>
+          <t>中庚价值先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>50.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>3.8469</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -829,36 +677,642 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>610004</t>
+          <t>920003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信达澳银中小盘混合</t>
+          <t>中金新锐股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>24.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>95.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0455</t>
+          <t>0.7493</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +1326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,7 +1347,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -933,26 +1387,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.77</t>
+          <t>54.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4555</t>
+          <t>3.7121</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -961,36 +1415,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501078</t>
+          <t>013910</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+          <t>兴业兴睿两年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.48</t>
+          <t>79.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.83</t>
+          <t>39.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4823</t>
+          <t>0.9141</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -999,32 +1453,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162720</t>
+          <t>501078</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发创业板两年定期开放混合</t>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.44</t>
+          <t>21.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>95.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3393</t>
+          <t>0.6068</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1037,36 +1491,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>162720</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>广发创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.76</t>
+          <t>93.33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2158</t>
+          <t>0.3450</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1075,36 +1529,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000717</t>
+          <t>013911</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合A</t>
+          <t>兴业兴睿两年持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>26.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>39.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1730</t>
+          <t>0.3065</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1113,36 +1567,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>673060</t>
+          <t>009353</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合A</t>
+          <t>浙商科技创新一个月滚动持有混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.32</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1575</t>
+          <t>0.2802</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1151,36 +1605,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009258</t>
+          <t>166801</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合C</t>
+          <t>浙商聚潮新思维混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>9.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.32</t>
+          <t>78.06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0418</t>
+          <t>0.2607</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1189,36 +1643,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001601</t>
+          <t>168501</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鑫元鑫新收益灵活配置混合A</t>
+          <t>北信瑞丰产业升级多策略混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>65.91</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0292</t>
+          <t>0.1578</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1227,36 +1681,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009828</t>
+          <t>009354</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合C</t>
+          <t>浙商科技创新一个月滚动持有混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.1172</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1265,34 +1719,490 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001602</t>
+          <t>014189</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鑫元鑫新收益灵活配置混合C</t>
+          <t>南方专精特新混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>65.91</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="n">
-        <v>2</v>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2274,7 +3184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2295,7 +3205,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2335,26 +3245,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.59</t>
+          <t>40.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.7121</t>
+          <t>1.4555</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2363,36 +3273,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013910</t>
+          <t>501078</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴业兴睿两年持有期混合A</t>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79.49</t>
+          <t>24.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>39.91</t>
+          <t>78.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9141</t>
+          <t>0.4823</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2401,32 +3311,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501078</t>
+          <t>162720</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+          <t>广发创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.07</t>
+          <t>10.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.22</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6068</t>
+          <t>0.3393</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2439,36 +3349,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>162720</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发创业板两年定期开放混合</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>74.76</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3450</t>
+          <t>0.2158</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2477,36 +3387,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013911</t>
+          <t>000717</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴业兴睿两年持有期混合C</t>
+          <t>融通转型三动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26.65</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>39.91</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3065</t>
+          <t>0.1730</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2515,36 +3425,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009353</t>
+          <t>673060</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
+          <t>西部利得景瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.15</t>
+          <t>89.32</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2802</t>
+          <t>0.1575</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2553,36 +3463,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>166801</t>
+          <t>009258</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浙商聚潮新思维混合</t>
+          <t>西部利得景瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78.06</t>
+          <t>89.32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2607</t>
+          <t>0.0418</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2591,36 +3501,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>168501</t>
+          <t>001601</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>北信瑞丰产业升级多策略混合</t>
+          <t>鑫元鑫新收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>65.91</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1578</t>
+          <t>0.0292</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -2629,36 +3539,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009354</t>
+          <t>009828</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
+          <t>融通转型三动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.15</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1172</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -2667,490 +3577,34 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>014189</t>
+          <t>001602</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方专精特新混合A</t>
+          <t>鑫元鑫新收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>30.05</t>
+          <t>65.91</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0654</t>
-        </is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001255</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长城改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>60.02</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0422</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004266</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.85</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0393</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>014190</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方专精特新混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>30.05</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011214</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>81.20</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009128</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>49.48</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010754</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>88.85</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004521</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>85.98</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002303</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>金鹰智慧生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.88</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001866</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>北信瑞丰新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004522</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>85.98</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011215</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>81.20</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009129</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>49.48</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3164,7 +3618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3185,7 +3639,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3215,36 +3669,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012930</t>
+          <t>610006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值先锋股票</t>
+          <t>信达澳银产业升级混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.55</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.8469</t>
+          <t>0.0582</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3253,642 +3707,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>920003</t>
+          <t>610004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中金新锐股票A</t>
+          <t>信达澳银中小盘混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.17</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.10</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7493</t>
+          <t>0.0455</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>162720</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3149</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009353</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2244</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>166801</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙商聚潮新思维混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>76.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2102</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001103</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源工业革命4.0灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.60</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1402</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>920923</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中金新锐股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.10</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1162</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160642</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1105</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>014339</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长江智能制造混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>69.26</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0903</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009354</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0891</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010706</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0378</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011214</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>64.15</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009128</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>51.87</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001866</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>北信瑞丰新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>84.81</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>014340</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长江智能制造混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>69.26</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>011215</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>64.15</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>014085</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>浙商聚潮新思维混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>76.32</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009129</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>51.87</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3902,128 +3750,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.96</v>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6049</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.91</v>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2845</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.67</v>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
-        <v>2.9</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1</v>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>5.96</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>6.91</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>7.67</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>2.9</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -583,6 +600,1162 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0751</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3971</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3636</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013895</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3344</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3243</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2576</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中小创精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013896</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>57.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015389</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>57.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1320,7 +2493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2210,7 +3383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3178,7 +4351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3612,7 +4785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3744,7 +4917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300687-赛意信息.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>8.359999999999999</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>5.96</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>6.91</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>7.67</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>2.9</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -600,6 +617,1542 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0645</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0152</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳核心科技混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9718</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4929</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4899</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4200</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2845</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2441</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015559</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长江启航混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天治核心成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015026</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华增华混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015594</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012669</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012670</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>32.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>52.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015027</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华增华混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015560</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长江启航混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002584</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>32.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015152</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016214</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>52.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1755,7 +3308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2493,7 +4046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3383,7 +4936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4351,7 +5904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4785,7 +6338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4917,7 +6470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
